--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC141136-83E2-4B46-8A2B-23FE97E53BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51808D45-36A9-4DFC-B416-359334B9C9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AI!$S$7:$S$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mobile!$A$5:$T$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 &amp; 관공서 페이지'!$A$5:$T$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 &amp; 관공서 페이지'!$A$5:$T$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">AI!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Mobile!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'관리자 &amp; 관공서 페이지'!$1:$6</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="282">
   <si>
     <t>"수행기관명"</t>
   </si>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 목록 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>PM
 (Personal Mobility)</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -521,29 +517,11 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>공공 주차장 목록 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공 주차장 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>PM 맵 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차 구역의 이름이 등록 되어 있어야함. 
-  ( 예&gt; 5분간 주차허용, 탄력 주차 시간 등)
-- 한 구역을 1개 이상의 타입으로 설정 가능</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 지도에서 보이지 않는 정보 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- PM 업체와 연동 ( 좌표 연계 필요 )</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -671,11 +649,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차 촬영 등록
-- 신고 하기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 불법 주정차 신고 알림 차량 등록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -721,12 +694,6 @@
     <t>REQ-MOBILE18</t>
   </si>
   <si>
-    <t>- 인터넷 사용 권한
-- 카메라 사용 권한
-- 겔러리 사용 권한</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>YOLO 분류</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -748,10 +715,6 @@
   </si>
   <si>
     <t>번호판 인식</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESTAPI</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -784,14 +747,6 @@
   </si>
   <si>
     <t>관공서 추가</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관공서 추가 / 수정 / 삭제 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 관공서 사용자 추가 / 수정</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -807,11 +762,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 정보 등록 
-- 일괄 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공영 주차장</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -844,10 +794,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>신고 등록 및 접수 목록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ-ADMIN12</t>
   </si>
   <si>
@@ -884,19 +830,6 @@
   </si>
   <si>
     <t>결재 목록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 목록 / 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 포인트 제공 및 포인트 사용 정보 목록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 상품 등록 
-- 상품 목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1064,13 +997,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 차량 전체 촬영 기능 구현
-- 현재 위치의 정보 보기 기능 구현
-- 신고 하기 기능 구현
-- 재 촬영 기능 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 불법 주정차 신고 알림 등록 기능 구현
 - 문자 알림 기능 구현</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -1086,27 +1012,6 @@
   <si>
     <t>- 불법 주정차 차량 신고 이력 목록 보기 기능 구현
 - 상세 보기 기능 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신고 후 포인트 정보 이력 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신고 후 포인트 이력 목록 보기 기능 구현
-- 상세 보기 기능 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 인터넷 사용 권한 설정 기능 구현
-- 카메라 사용 권한 설정 기능 구현
-- 겔러리 사용 권한 설정 기능 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 인터넷 사용 권한 설정 기능 구현 
-- 카메라 사용 권한 설정 기능 구현
-- 이미지 저장 권한 설정 기능 구현</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1172,21 +1077,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 관리자의 신고 등록 사진 보기
-- 관리자의 신고 접수 사진 보기
-- 관리자의 신고 등록 및 접수의 정보 보기
-- 관리자의 신고 접수시 2회 비교 사진 및 정보 보기
-- 기관 사용자의 신고 접수 사진 및 2회 비교 사진 보기
-- 기관 사용자의 신고 접수시 2회 비교 정보 보기
-- 기관과 연계하여 정보 전달</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>상세보기 및 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기 및 신고 판별 등록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1238,10 +1129,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차 구역 / 타입 / 시간 / 관리 그룹 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">- 불법 주정차를 다각형 모양으로 표시 기능 구현
 - 불법 주정차의 타입 따라 색상으로 표현 하는 기능 구현
 - 불법 주정차 구역 등록 / 수정 기능 구현
@@ -1282,11 +1169,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 지도 보기 
-- PM 위치 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 맵 보기 기능 구현
 - PM 위치 표시 기능 구현
 - 킥보드 와 자전거 구별 하여 표시하기 기능</t>
@@ -1314,6 +1196,231 @@
     <t>- 신고, 처리, 미처리 건수를 Pie Chart 로 보기
 - 월별 신고등록과 접수를 바 차트로 보기 
 - 총 신고 건 수 와 담당 부서에 전달하는 건 수 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고등록 및 신고접수 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 및 신고판별 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고등록 목록 보기 (관리자)
+- 신고접수 목록 보기 (관리자, 기관 사용자)
+- 신고등록 및 신고접수 사진의 1차 및 2차 비교 보기 (관리자, 기관 사용자)
+- 신고등록 및 신고접수 정보의 1차 및 2차 비교 보기 (관리자, 기관 사용자)
+- 신고판별 등록 (기관 사용자)
+- 기관과 연계하여 정보 전달 ( Restful API )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 처리</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 등록 및 신고 접수 처리</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN16</t>
+  </si>
+  <si>
+    <t>- 1차 신고등록 처리 
+- 1차 신고 차량번호로 2차 신고일 때 신고접수 처리
+- 불법 주정차 지역 판별
+- 불법 주정차 시간 판별
+- 신고 차량을 동일 사용자의 1차 신고 와 2차 신고에 의한 신고 처리
+- 신고타입 은 불법주정차(1분) 와 5분주정차(5분)로 구분
+- 신고타입에 따라 최초 신고 후 1분(또는 5분) 경과하여 2차 신고 여부 처리 
+- 신고타입에 따라 최초 신고 후 1분(또는 5분) 경과하여 11분(또는 16분) 을 넘기면 신고종료 처리</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법주정차 지역은 허용 시간은 최대 1분으로 한다.
+- 5분주정차 지역은 주차 허용 시간을 최대 5분으로 한다. 
+- 최초 신고는 신고등록으로 등록한다. 
+- 2차 신고는 신고접수로 등록한다. 
+- 신고등록 후 1분(또는 5분) 후 11분(또는 16분) 이하인경우 신고접수 처리한다. 
+- 신고등록 후 11분(또는 16분) 이 지난 후 신고는 신규로 등록 처리하며 기존의 신고등록은 신고종료 처리한다. 
+- 신고등록의 상태는 신고발생, 신고접수, 신고제외, 신고종료, 신고불가 의 5가지로 한다.
+- 신고접수의 상태는 신고대기, 과태료대상, 신고제외 의 3가지로 한다.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고등록 처리 기능 구현
+- 신고접수 처리 기능 구현
+- 신고 상태 구분 기능 구현
+- 예외 알림 기능 구현
+- 신고등록 상태를 기준으로 시간 체크 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN17</t>
+  </si>
+  <si>
+    <t>- 관공서 사용자 추가 / 수정 하기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사용자 목록 보기 기능 구현
+- 검색 기능 구현
+- 필터 기능 구현 (필터 요소 : 제목, 내용 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사용자 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>관공서 추가 / 수정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역의 그룹 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역의 그룹 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지역 과 그룹 명 등록
+- 그룹의 이벤트 등록 
+- 이벤트 정보 등록 ( 제한 포인트 / 지급 포인트 / 지급 일자 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 포인트 제한 없음 추가 
+- 일자 제한 없음 추가</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 그룹 추가 기능 구현
+- 이벤트 추가 기능 구현
+- 그룹에 포인트 추가 기능 구현
+- 그룹에 지급 일자 기능 구현 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN18</t>
+  </si>
+  <si>
+    <t>- 불법 주정차 구역 등록 / 수정 
+- 불법 주정차 구역에 이벤트 등록 / 수정 
+  ( 이벤트 :  구역 타입 / 허용 시간 : 최대 2개 / 관리 그룹 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 허용 시간은 필수 사항이 아님</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공영 주차장 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공영 주차장 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 정보 등록 
+- 일괄 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 보기 
+- PM 위치 보기
+- PM 정보 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- PM 업체와 연동 ( 좌표 연계 필요 )
+- PM 은 전동 킥보드와 자전거를 표현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록 및 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상품 등록  
+- 상품 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 포인트 제공 및 사용 정보 목록 보기 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTFUL API</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 차량 전체 촬영 기능 구현
+- 현재 위치의 정보 보기 기능 구현
+- 신고 하기 기능 구현
+- 재 촬영 기능 구현
+- 현재 시간 및 현재 위치 좌표 저장 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 촬영 등록
+- 현재위치 와 현재 촬영시간 으로 신고</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 후 포인트 정보 이력 보기
+- 상품 구매 하기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 후 포인트 이력 목록 보기 기능 구현
+- 상품 구매 기능 구현
+- 상세 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인터넷 사용 권한
+- 카메라 사용 권한
+- 겔러리 사용 권한
+- 위치 사용 권한</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인터넷 사용 권한 설정 기능 구현 
+- 카메라 사용 권한 설정 기능 구현
+- 이미지 저장 권한 설정 기능 구현
+- GPS 사용 권한 설정 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인터넷 사용 권한 설정 기능 구현
+- 카메라 사용 권한 설정 기능 구현
+- 겔러리 사용 권한 설정 기능 구현
+- GPS 사용 권한 설정 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 환경 설정이 아닌 고정형으로 한다. 
+- 초기 설치 할 때 1회 사용자에게 사용 여부를 확인 한다. </t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1733,7 +1840,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,6 +2063,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1968,6 +2084,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1977,18 +2105,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2019,6 +2135,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,9 +2145,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2427,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -2559,55 +2675,55 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="7"/>
@@ -2625,66 +2741,66 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="7"/>
@@ -2702,36 +2818,36 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="7"/>
@@ -2919,70 +3035,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="85" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="79" t="str">
+      <c r="A4" s="86" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -3062,36 +3178,36 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="81" t="s">
@@ -3138,7 +3254,7 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="38" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -3295,6 +3411,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A11:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:J24"/>
     <mergeCell ref="A21:B21"/>
@@ -3303,23 +3436,6 @@
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:J23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="A11:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3339,7 +3455,7 @@
   <dimension ref="A1:BL1048558"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3369,77 +3485,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="92" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3453,60 +3569,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s" ph="1">
+      <c r="R5" s="88"/>
+      <c r="S5" s="88" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="88" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3516,11 +3632,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3533,16 +3649,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85" ph="1"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="88" ph="1"/>
+      <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3551,24 +3667,24 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="89" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="55" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>35</v>
@@ -3597,7 +3713,7 @@
       </c>
       <c r="R7" s="54"/>
       <c r="S7" s="61" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="T7" s="59"/>
     </row>
@@ -3608,22 +3724,22 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="60" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="55" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>35</v>
@@ -3652,7 +3768,7 @@
       </c>
       <c r="R8" s="54"/>
       <c r="S8" s="61" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="T8" s="59"/>
     </row>
@@ -3663,22 +3779,22 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="60" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="55" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -3707,7 +3823,7 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="61" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="T9" s="59"/>
     </row>
@@ -3716,24 +3832,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="88"/>
+        <v>177</v>
+      </c>
+      <c r="C10" s="91"/>
       <c r="D10" s="60" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="55" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -3762,7 +3878,7 @@
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="61" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="T10" s="59"/>
     </row>
@@ -3914,7 +4030,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C7:C10"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -3933,6 +4048,7 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3972,8 +4088,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048572"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -4003,77 +4119,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="92" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -4087,60 +4203,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s">
+      <c r="R5" s="88"/>
+      <c r="S5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="88" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -4150,11 +4266,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -4167,16 +4283,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:64" s="67" customFormat="1" ht="54">
       <c r="A7" s="50">
@@ -4185,26 +4301,26 @@
       <c r="B7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>136</v>
-      </c>
       <c r="I7" s="68" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>35</v>
@@ -4233,7 +4349,7 @@
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T7" s="66"/>
       <c r="U7" s="43"/>
@@ -4288,20 +4404,20 @@
       <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H8" s="68"/>
       <c r="I8" s="68" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>35</v>
@@ -4330,7 +4446,7 @@
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T8" s="66"/>
       <c r="U8" s="43"/>
@@ -4378,104 +4494,106 @@
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
     </row>
-    <row r="9" spans="1:64" s="67" customFormat="1" ht="69.95" customHeight="1">
+    <row r="9" spans="1:64" ht="69.95" customHeight="1">
       <c r="A9" s="50">
         <v>3</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="96" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" s="66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="76" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="57" t="str">
-        <f>표지!A10</f>
-        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
-      </c>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="76" t="str">
+        <f>표지!A11</f>
+        <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
+      </c>
+      <c r="N9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="Q9" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57" t="s">
-        <v>137</v>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
     </row>
     <row r="10" spans="1:64" ht="54">
       <c r="A10" s="50">
@@ -4484,24 +4602,22 @@
       <c r="B10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="93" t="s">
-        <v>102</v>
-      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>200</v>
+        <v>118</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>185</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>35</v>
@@ -4530,7 +4646,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -4541,20 +4657,20 @@
       <c r="B11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="100"/>
+        <v>119</v>
+      </c>
+      <c r="H11" s="103"/>
       <c r="I11" s="53" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>35</v>
@@ -4573,17 +4689,17 @@
         <v>38</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T11" s="58"/>
     </row>
@@ -4594,22 +4710,22 @@
       <c r="B12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="57" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>35</v>
@@ -4628,17 +4744,17 @@
         <v>38</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R12" s="51"/>
       <c r="S12" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T12" s="58"/>
     </row>
@@ -4649,20 +4765,20 @@
       <c r="B13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="57" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>35</v>
@@ -4681,17 +4797,17 @@
         <v>38</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T13" s="58"/>
     </row>
@@ -4702,20 +4818,20 @@
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="57" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -4744,7 +4860,7 @@
       </c>
       <c r="R14" s="57"/>
       <c r="S14" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T14" s="58"/>
     </row>
@@ -4755,22 +4871,22 @@
       <c r="B15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -4789,17 +4905,17 @@
         <v>38</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T15" s="58"/>
     </row>
@@ -4810,22 +4926,22 @@
       <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -4854,7 +4970,7 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T16" s="58"/>
     </row>
@@ -4865,24 +4981,24 @@
       <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="93" t="s">
+      <c r="C17" s="97"/>
+      <c r="D17" s="96" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -4911,7 +5027,7 @@
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T17" s="58"/>
     </row>
@@ -4922,22 +5038,22 @@
       <c r="B18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -4966,7 +5082,7 @@
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T18" s="58"/>
     </row>
@@ -4977,24 +5093,24 @@
       <c r="B19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="93" t="s">
-        <v>109</v>
+      <c r="C19" s="97"/>
+      <c r="D19" s="96" t="s">
+        <v>104</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -5023,7 +5139,7 @@
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T19" s="58"/>
     </row>
@@ -5034,20 +5150,20 @@
       <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J20" s="57" t="s">
         <v>35</v>
@@ -5076,7 +5192,7 @@
       </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T20" s="58"/>
     </row>
@@ -5087,20 +5203,20 @@
       <c r="B21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J21" s="71" t="s">
         <v>35</v>
@@ -5129,7 +5245,7 @@
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T21" s="58"/>
     </row>
@@ -5138,22 +5254,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
+        <v>132</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="53" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="J22" s="57" t="s">
         <v>35</v>
@@ -5182,31 +5298,33 @@
       </c>
       <c r="R22" s="57"/>
       <c r="S22" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T22" s="58"/>
     </row>
-    <row r="23" spans="1:20" ht="54">
+    <row r="23" spans="1:20" ht="60.75" customHeight="1">
       <c r="A23" s="50">
         <v>17</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="94"/>
+        <v>133</v>
+      </c>
+      <c r="C23" s="97"/>
       <c r="D23" s="57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="64"/>
+        <v>278</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>281</v>
+      </c>
       <c r="I23" s="64" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>35</v>
@@ -5235,31 +5353,33 @@
       </c>
       <c r="R23" s="57"/>
       <c r="S23" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T23" s="58"/>
     </row>
-    <row r="24" spans="1:20" ht="54">
+    <row r="24" spans="1:20" ht="63" customHeight="1">
       <c r="A24" s="50">
         <v>18</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="95"/>
+        <v>134</v>
+      </c>
+      <c r="C24" s="99"/>
       <c r="D24" s="57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="64"/>
+        <v>278</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>281</v>
+      </c>
       <c r="I24" s="64" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>35</v>
@@ -5288,7 +5408,7 @@
       </c>
       <c r="R24" s="57"/>
       <c r="S24" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T24" s="58"/>
     </row>
@@ -5440,6 +5560,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C7:C24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D9:D16"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -5456,14 +5584,6 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C7:C24"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -5501,10 +5621,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL1048569"/>
+  <dimension ref="A1:BL1048572"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5534,77 +5654,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="92" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="A3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5618,60 +5738,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s">
+      <c r="R5" s="88"/>
+      <c r="S5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="88" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="62" t="s">
         <v>26</v>
       </c>
@@ -5681,11 +5801,11 @@
       <c r="E6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -5698,16 +5818,16 @@
       <c r="N6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" ht="54">
       <c r="A7" s="50">
@@ -5717,23 +5837,23 @@
         <v>68</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="63" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>35</v>
@@ -5752,10 +5872,10 @@
         <v>38</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="63" t="s">
         <v>40</v>
@@ -5773,24 +5893,24 @@
       <c r="B8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>163</v>
+      <c r="C8" s="96" t="s">
+        <v>152</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="70" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="J8" s="70" t="s">
         <v>35</v>
@@ -5809,10 +5929,10 @@
         <v>38</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="70" t="s">
         <v>40</v>
@@ -5830,22 +5950,22 @@
       <c r="B9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="63" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="63" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J9" s="63" t="s">
         <v>35</v>
@@ -5864,10 +5984,10 @@
         <v>38</v>
       </c>
       <c r="O9" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P9" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="63" t="s">
         <v>40</v>
@@ -5885,7 +6005,7 @@
       <c r="B10" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="104" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -5895,16 +6015,16 @@
         <v>79</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5920,7 +6040,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5937,139 +6057,141 @@
       </c>
       <c r="T10" s="58"/>
     </row>
-    <row r="11" spans="1:20" ht="120" customHeight="1">
+    <row r="11" spans="1:20" ht="140.1" customHeight="1">
       <c r="A11" s="50">
         <v>5</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74" t="s">
         <v>240</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="57" t="str">
+      <c r="M11" s="74" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="O11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="57" t="s">
+      <c r="Q11" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="57"/>
-      <c r="S11" s="63" t="s">
+      <c r="R11" s="74"/>
+      <c r="S11" s="74" t="s">
         <v>52</v>
       </c>
       <c r="T11" s="58"/>
     </row>
-    <row r="12" spans="1:20" ht="69.95" customHeight="1">
+    <row r="12" spans="1:20" ht="210" customHeight="1">
       <c r="A12" s="50">
         <v>6</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>157</v>
+      <c r="C12" s="104"/>
+      <c r="D12" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
+        <v>243</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="71" t="str">
+      <c r="M12" s="57" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="63" t="s">
+      <c r="O12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="63"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T12" s="58"/>
     </row>
-    <row r="13" spans="1:20" ht="54">
+    <row r="13" spans="1:20" ht="69.95" customHeight="1">
       <c r="A13" s="50">
         <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="C13" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>148</v>
+      </c>
       <c r="F13" s="63" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>35</v>
@@ -6088,10 +6210,10 @@
         <v>38</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="P13" s="63" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="63" t="s">
         <v>40</v>
@@ -6102,115 +6224,107 @@
       </c>
       <c r="T13" s="58"/>
     </row>
-    <row r="14" spans="1:20" ht="54" customHeight="1">
+    <row r="14" spans="1:20" ht="69.95" customHeight="1">
       <c r="A14" s="50">
         <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>89</v>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="74" t="s">
+        <v>253</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="53"/>
+        <v>249</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="I14" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="74" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="57" t="str">
+      <c r="M14" s="74" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="57" t="s">
+      <c r="O14" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="57"/>
-      <c r="S14" s="63" t="s">
-        <v>101</v>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74" t="s">
+        <v>52</v>
       </c>
       <c r="T14" s="58"/>
     </row>
-    <row r="15" spans="1:20" ht="90" customHeight="1">
+    <row r="15" spans="1:20" ht="54">
       <c r="A15" s="50">
         <v>9</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57" t="s">
-        <v>90</v>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>94</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H15" s="53"/>
       <c r="I15" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="J15" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="57" t="str">
+      <c r="M15" s="71" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N15" s="57" t="s">
+      <c r="N15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="57"/>
+      <c r="R15" s="63"/>
       <c r="S15" s="63" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="T15" s="58"/>
     </row>
@@ -6221,26 +6335,24 @@
       <c r="B16" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="101" t="s">
-        <v>162</v>
+      <c r="C16" s="104" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>254</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -6259,100 +6371,102 @@
         <v>38</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="63" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T16" s="58"/>
     </row>
-    <row r="17" spans="1:20" ht="54" customHeight="1">
+    <row r="17" spans="1:20" ht="84" customHeight="1">
       <c r="A17" s="50">
         <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>91</v>
+        <v>146</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>89</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>95</v>
+        <v>262</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>263</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="J17" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" s="75" t="s">
         <v>35</v>
       </c>
       <c r="K17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="57" t="str">
+      <c r="M17" s="75" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="57" t="s">
+      <c r="O17" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R17" s="57"/>
-      <c r="S17" s="63" t="s">
-        <v>52</v>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="T17" s="58"/>
     </row>
-    <row r="18" spans="1:20" ht="54" customHeight="1">
+    <row r="18" spans="1:20" ht="86.25" customHeight="1">
       <c r="A18" s="50">
         <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="C18" s="104"/>
       <c r="D18" s="57" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="64"/>
+        <v>258</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>259</v>
+      </c>
       <c r="I18" s="53" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -6371,17 +6485,17 @@
         <v>38</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="63" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="T18" s="58"/>
     </row>
@@ -6390,28 +6504,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>88</v>
+        <v>209</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>151</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -6430,70 +6544,72 @@
         <v>38</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="63" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T19" s="58"/>
     </row>
-    <row r="20" spans="1:20" ht="69.95" customHeight="1">
+    <row r="20" spans="1:20" ht="54" customHeight="1">
       <c r="A20" s="50">
         <v>14</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="63" t="s">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>264</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="53"/>
+        <v>265</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="J20" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="57" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="63" t="str">
-        <f>표지!A11</f>
-        <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
-      </c>
-      <c r="N20" s="63" t="s">
+      <c r="M20" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="63" t="s">
+      <c r="O20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="63"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="63" t="s">
         <v>52</v>
       </c>
@@ -6504,24 +6620,24 @@
         <v>15</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="73"/>
+        <v>170</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>86</v>
+      </c>
       <c r="F21" s="57" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>260</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H21" s="64"/>
       <c r="I21" s="53" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -6540,10 +6656,10 @@
         <v>38</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="P21" s="57" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="57" t="s">
         <v>40</v>
@@ -6554,19 +6670,179 @@
       </c>
       <c r="T21" s="58"/>
     </row>
-    <row r="1048522" spans="12:12">
-      <c r="L1048522" s="57" t="s">
+    <row r="22" spans="1:20" ht="54" customHeight="1">
+      <c r="A22" s="50">
+        <v>16</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="1048523" spans="12:12">
-      <c r="L1048523" s="57"/>
-    </row>
-    <row r="1048524" spans="12:12">
-      <c r="L1048524" s="57"/>
+      <c r="M22" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="57"/>
+      <c r="S22" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="1:20" ht="69.95" customHeight="1">
+      <c r="A23" s="50">
+        <v>17</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="63" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="58"/>
+    </row>
+    <row r="24" spans="1:20" ht="54" customHeight="1">
+      <c r="A24" s="50">
+        <v>18</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="57"/>
+      <c r="S24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="58"/>
     </row>
     <row r="1048525" spans="12:12">
-      <c r="L1048525" s="57"/>
+      <c r="L1048525" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="1048526" spans="12:12">
       <c r="L1048526" s="57"/>
@@ -6700,22 +6976,17 @@
     <row r="1048569" spans="12:12">
       <c r="L1048569" s="57"/>
     </row>
+    <row r="1048570" spans="12:12">
+      <c r="L1048570" s="57"/>
+    </row>
+    <row r="1048571" spans="12:12">
+      <c r="L1048571" s="57"/>
+    </row>
+    <row r="1048572" spans="12:12">
+      <c r="L1048572" s="57"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -6728,26 +6999,40 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J21" xr:uid="{9BD06E7C-8EC0-4BB5-8648-303BC5890978}">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J24" xr:uid="{9BD06E7C-8EC0-4BB5-8648-303BC5890978}">
       <formula1>"기능,비기능"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K21" xr:uid="{DB890959-F961-4DEC-BEA0-263CFA4C43E3}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K24" xr:uid="{DB890959-F961-4DEC-BEA0-263CFA4C43E3}">
       <formula1>"Y,N"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P21" xr:uid="{3357D440-A28C-47C6-824A-145F7CA969B3}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P24" xr:uid="{3357D440-A28C-47C6-824A-145F7CA969B3}">
       <formula1>"상,중,하"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q21" xr:uid="{35B433F8-ABE2-4B33-8737-15CE5BB3183B}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q24" xr:uid="{35B433F8-ABE2-4B33-8737-15CE5BB3183B}">
       <formula1>"신규,변경,보류,삭제,추가"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S21" xr:uid="{C685DA7C-C696-48D1-8C28-D62BDFCC793D}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S24" xr:uid="{C685DA7C-C696-48D1-8C28-D62BDFCC793D}">
       <formula1>"박용성 대리, 곽우영 차장, 곽우영 차장/박용성 대리"</formula1>
     </dataValidation>
   </dataValidations>
